--- a/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9747</v>
+        <v>9661</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25599</v>
+        <v>24603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03326257601467784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02039733605053755</v>
+        <v>0.02021786539783805</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05357289770810514</v>
+        <v>0.05148769292389598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -765,19 +765,19 @@
         <v>20006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12906</v>
+        <v>13055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29232</v>
+        <v>29850</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0371780855041258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02398412362730865</v>
+        <v>0.02426027558139207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05432331305802217</v>
+        <v>0.05547187261305841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -786,19 +786,19 @@
         <v>35900</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25172</v>
+        <v>24912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48230</v>
+        <v>48204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03533646625156023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02477704589999334</v>
+        <v>0.02452107161367901</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04747344779492579</v>
+        <v>0.04744801828118962</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>461943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452238</v>
+        <v>453234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468090</v>
+        <v>468176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9667374239853221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9464271022918949</v>
+        <v>0.9485123070761045</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9796026639494625</v>
+        <v>0.9797821346021619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>524</v>
@@ -836,19 +836,19 @@
         <v>518098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>508872</v>
+        <v>508254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>525198</v>
+        <v>525049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9628219144958742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9456766869419778</v>
+        <v>0.9445281273869416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9760158763726914</v>
+        <v>0.975739724418608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>978</v>
@@ -857,19 +857,19 @@
         <v>980041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>967711</v>
+        <v>967737</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>990769</v>
+        <v>991029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9646635337484397</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9525265522050742</v>
+        <v>0.9525519817188104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9752229541000066</v>
+        <v>0.975478928386321</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>28482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18533</v>
+        <v>19238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41194</v>
+        <v>41063</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03944230811221826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02566393440030867</v>
+        <v>0.02664068537175399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05704579377367737</v>
+        <v>0.05686443305279766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -982,19 +982,19 @@
         <v>22508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14448</v>
+        <v>15243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33592</v>
+        <v>33167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02798714985419494</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01796536978224627</v>
+        <v>0.01895353067090482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04176928063314978</v>
+        <v>0.04124144610804864</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -1003,19 +1003,19 @@
         <v>50990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37565</v>
+        <v>37579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68289</v>
+        <v>67497</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03340665816026255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02461106977752418</v>
+        <v>0.02461995351524915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04473990534165967</v>
+        <v>0.04422121047231292</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>693646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>680934</v>
+        <v>681065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>703595</v>
+        <v>702890</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9605576918877817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9429542062263225</v>
+        <v>0.943135566947202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9743360655996913</v>
+        <v>0.9733593146282459</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>734</v>
@@ -1053,19 +1053,19 @@
         <v>781718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>770634</v>
+        <v>771059</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>789778</v>
+        <v>788983</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9720128501458051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9582307193668499</v>
+        <v>0.9587585538919513</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9820346302177536</v>
+        <v>0.9810464693290951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1376</v>
@@ -1074,19 +1074,19 @@
         <v>1475364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1458065</v>
+        <v>1458857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1488789</v>
+        <v>1488775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9665933418397374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9552600946583405</v>
+        <v>0.9557787895276877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9753889302224759</v>
+        <v>0.975380046484751</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>17609</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11104</v>
+        <v>10105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28742</v>
+        <v>27560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03230559720897484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02037163109078453</v>
+        <v>0.01853772132942721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05272961487486123</v>
+        <v>0.05056100100893081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1199,19 +1199,19 @@
         <v>20119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11971</v>
+        <v>12779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30426</v>
+        <v>30974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03441394706062246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02047771186829786</v>
+        <v>0.02185956133494085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05204476522019017</v>
+        <v>0.05298207393070193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1220,19 +1220,19 @@
         <v>37728</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27299</v>
+        <v>26636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51512</v>
+        <v>52609</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03339665004335506</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0241650857964492</v>
+        <v>0.02357791550212321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0455978469969348</v>
+        <v>0.04656933780894888</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>527480</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>516347</v>
+        <v>517529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>533985</v>
+        <v>534984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9676944027910251</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9472703851251385</v>
+        <v>0.9494389989910691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9796283689092153</v>
+        <v>0.9814622786705726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>576</v>
@@ -1270,19 +1270,19 @@
         <v>564490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>554183</v>
+        <v>553635</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>572638</v>
+        <v>571830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9655860529393775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9479552347798098</v>
+        <v>0.9470179260692978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9795222881317022</v>
+        <v>0.9781404386650588</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1073</v>
@@ -1291,19 +1291,19 @@
         <v>1091970</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1078186</v>
+        <v>1077089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1102399</v>
+        <v>1103062</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.966603349956645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.954402153003065</v>
+        <v>0.9534306621910511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9758349142035507</v>
+        <v>0.9764220844978766</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14193</v>
+        <v>14802</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32215</v>
+        <v>34228</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03147177046641285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01999902119604423</v>
+        <v>0.02085703738283807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04539281109647981</v>
+        <v>0.04822944552815966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1416,19 +1416,19 @@
         <v>32459</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22295</v>
+        <v>22748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46461</v>
+        <v>45112</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03987593443296693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02738902869952036</v>
+        <v>0.02794657814758374</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05707767414581071</v>
+        <v>0.05542064859260022</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1437,19 +1437,19 @@
         <v>54794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43752</v>
+        <v>41956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73222</v>
+        <v>69861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03596152461973621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.028714747037923</v>
+        <v>0.02753594666061869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0480557454534031</v>
+        <v>0.04585013565380135</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>687353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>677473</v>
+        <v>675460</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>695495</v>
+        <v>694886</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9685282295335872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9546071889035199</v>
+        <v>0.9517705544718392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9800009788039553</v>
+        <v>0.9791429626171618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>750</v>
@@ -1487,19 +1487,19 @@
         <v>781539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>767537</v>
+        <v>768886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791703</v>
+        <v>791250</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9601240655670331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9429223258541893</v>
+        <v>0.9445793514073999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9726109713004798</v>
+        <v>0.9720534218524165</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1480</v>
@@ -1508,19 +1508,19 @@
         <v>1468892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1450464</v>
+        <v>1453825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1479934</v>
+        <v>1481730</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9640384753802638</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9519442545465967</v>
+        <v>0.9541498643461986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.971285252962077</v>
+        <v>0.9724640533393814</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>84321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03435026937143167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1633,19 +1633,19 @@
         <v>95091</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03469299096635507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>179</v>
@@ -1654,19 +1654,19 @@
         <v>179412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03453106929566539</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2370421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2350836</v>
+        <v>2348035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2387410</v>
+        <v>2386137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9656497306285683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9576713057828695</v>
+        <v>0.9565302517465167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9725707696088927</v>
+        <v>0.9720521851142843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2584</v>
@@ -1704,19 +1704,19 @@
         <v>2645846</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2626858</v>
+        <v>2624455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2665383</v>
+        <v>2663297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.965307009033645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9583795894669664</v>
+        <v>0.9575026831408102</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.972434799049217</v>
+        <v>0.9716739120256385</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4907</v>
@@ -1725,19 +1725,19 @@
         <v>5016267</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4989565</v>
+        <v>4991375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5041194</v>
+        <v>5041673</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9654689307043346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9603297694747568</v>
+        <v>0.9606781512461239</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9702667087751243</v>
+        <v>0.9703587996982082</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>21468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14039</v>
+        <v>13271</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31222</v>
+        <v>32174</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03542815185443668</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02316790083151626</v>
+        <v>0.02190154022107039</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05152543346182539</v>
+        <v>0.05309608921979642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2090,19 +2090,19 @@
         <v>22317</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14340</v>
+        <v>14993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33398</v>
+        <v>33189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03510068514930495</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02255490679678877</v>
+        <v>0.02358139792794485</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05252949642298459</v>
+        <v>0.05219969208485707</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2111,19 +2111,19 @@
         <v>43785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32264</v>
+        <v>31640</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58641</v>
+        <v>57370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03526048255873794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02598297848979784</v>
+        <v>0.02547995020860448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04722405817507913</v>
+        <v>0.04620048102014081</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>584483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>574729</v>
+        <v>573777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>591912</v>
+        <v>592680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9645718481455633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484745665381745</v>
+        <v>0.9469039107802036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9768320991684837</v>
+        <v>0.9780984597789297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>570</v>
@@ -2161,19 +2161,19 @@
         <v>613484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>602403</v>
+        <v>602612</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>621461</v>
+        <v>620808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.964899314850695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9474705035770155</v>
+        <v>0.947800307915143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9774450932032113</v>
+        <v>0.9764186020720551</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1130</v>
@@ -2182,19 +2182,19 @@
         <v>1197967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1183111</v>
+        <v>1184382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1209488</v>
+        <v>1210112</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9647395174412621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9527759418249211</v>
+        <v>0.953799518979859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9740170215102022</v>
+        <v>0.9745200497913954</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>24580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15283</v>
+        <v>15705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37805</v>
+        <v>37887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02835051233010651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01762780710938096</v>
+        <v>0.01811425967488717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04360391109354406</v>
+        <v>0.04369882983131344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -2307,19 +2307,19 @@
         <v>40809</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28100</v>
+        <v>28799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54418</v>
+        <v>55037</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04540265177949763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03126267537098132</v>
+        <v>0.03204064878602732</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06054382947949154</v>
+        <v>0.06123177903103454</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -2328,19 +2328,19 @@
         <v>65389</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50103</v>
+        <v>49988</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83153</v>
+        <v>84794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03703024271259625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0283737231661658</v>
+        <v>0.02830863671862684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04709054493092754</v>
+        <v>0.04801985180121441</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>842418</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>829193</v>
+        <v>829111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>851715</v>
+        <v>851293</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9716494876698935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9563960889064561</v>
+        <v>0.9563011701686865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9823721928906191</v>
+        <v>0.9818857403251129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>785</v>
@@ -2378,19 +2378,19 @@
         <v>858014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>844405</v>
+        <v>843786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>870723</v>
+        <v>870024</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9545973482205024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9394561705205083</v>
+        <v>0.9387682209689655</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9687373246290186</v>
+        <v>0.9679593512139726</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1562</v>
@@ -2399,19 +2399,19 @@
         <v>1700432</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1682668</v>
+        <v>1681027</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1715718</v>
+        <v>1715833</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9629697572874037</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9529094550690725</v>
+        <v>0.9519801481987867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9716262768338346</v>
+        <v>0.9716913632813735</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>22947</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14422</v>
+        <v>14589</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35864</v>
+        <v>34500</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03607899854254066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02267438401076543</v>
+        <v>0.0229381714997859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05638642721996347</v>
+        <v>0.05424300268097144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2524,19 +2524,19 @@
         <v>14628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7878</v>
+        <v>8113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25043</v>
+        <v>23876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02155993436135154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01161156339298386</v>
+        <v>0.01195692310888683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03690886700519731</v>
+        <v>0.03518967330836471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -2545,19 +2545,19 @@
         <v>37576</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26573</v>
+        <v>25618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53695</v>
+        <v>51350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0285849595592684</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02021488310414205</v>
+        <v>0.01948824727817477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04084729701052171</v>
+        <v>0.03906369154889917</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>613086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600169</v>
+        <v>601533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621611</v>
+        <v>621444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9639210014574593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9436135727800362</v>
+        <v>0.9457569973190281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9773256159892343</v>
+        <v>0.9770618285002136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>602</v>
@@ -2595,19 +2595,19 @@
         <v>663869</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653454</v>
+        <v>654621</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>670619</v>
+        <v>670384</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9784400656386485</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9630911329948029</v>
+        <v>0.9648103266916355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9883884366070161</v>
+        <v>0.9880430768911133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1163</v>
@@ -2616,19 +2616,19 @@
         <v>1276953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1260834</v>
+        <v>1263179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1287956</v>
+        <v>1288911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9714150404407316</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9591527029894783</v>
+        <v>0.9609363084511009</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.979785116895858</v>
+        <v>0.9805117527218252</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>28399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19406</v>
+        <v>18992</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40691</v>
+        <v>40011</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03524866543057818</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02408610239376403</v>
+        <v>0.02357303992202859</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05050578757232893</v>
+        <v>0.0496608853445196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -2741,19 +2741,19 @@
         <v>35185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24987</v>
+        <v>24664</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49711</v>
+        <v>48782</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03770409528004327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02677600907343968</v>
+        <v>0.02642920950347438</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05326901573850116</v>
+        <v>0.05227384393148438</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -2762,19 +2762,19 @@
         <v>63585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51236</v>
+        <v>47615</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83303</v>
+        <v>80693</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03656641766674072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02946501369848339</v>
+        <v>0.02738283535196695</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04790602568396088</v>
+        <v>0.04640505941387518</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>777277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>764985</v>
+        <v>765665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>786270</v>
+        <v>786684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9647513345694219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.949494212427671</v>
+        <v>0.9503391146554798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9759138976062359</v>
+        <v>0.9764269600779714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>853</v>
@@ -2812,19 +2812,19 @@
         <v>898016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>883490</v>
+        <v>884419</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>908214</v>
+        <v>908537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9622959047199567</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9467309842614987</v>
+        <v>0.9477261560685154</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9732239909265602</v>
+        <v>0.9735707904965256</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1600</v>
@@ -2833,19 +2833,19 @@
         <v>1675292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1655574</v>
+        <v>1658184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1687641</v>
+        <v>1691262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9634335823332593</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9520939743160389</v>
+        <v>0.9535949405861249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9705349863015166</v>
+        <v>0.9726171646480332</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>97394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79892</v>
+        <v>79274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122339</v>
+        <v>119055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03341524084440683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02741024511457341</v>
+        <v>0.0271982512939499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0419736786117124</v>
+        <v>0.04084683314317323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -2958,19 +2958,19 @@
         <v>112940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93423</v>
+        <v>93554</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136581</v>
+        <v>134534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03589583331884923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02969286582727178</v>
+        <v>0.02973447382600873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04340977623234475</v>
+        <v>0.04275910362342579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -2979,19 +2979,19 @@
         <v>210334</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181378</v>
+        <v>183624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240952</v>
+        <v>240874</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0347029436919742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02992560407206877</v>
+        <v>0.03029611492634642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03975455504274893</v>
+        <v>0.0397417678708707</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2817265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2792320</v>
+        <v>2795604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2834767</v>
+        <v>2835385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9665847591555932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9580263213882877</v>
+        <v>0.9591531668568267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9725897548854265</v>
+        <v>0.97280174870605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2810</v>
@@ -3029,19 +3029,19 @@
         <v>3033381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3009740</v>
+        <v>3011787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3052898</v>
+        <v>3052767</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9641041666811507</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9565902237676549</v>
+        <v>0.9572408963765742</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9703071341727282</v>
+        <v>0.9702655261739912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5455</v>
@@ -3050,19 +3050,19 @@
         <v>5850646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5820028</v>
+        <v>5820106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5879602</v>
+        <v>5877356</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9652970563080258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9602454449572508</v>
+        <v>0.9602582321291293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9700743959279311</v>
+        <v>0.9697038850736536</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>14108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7835</v>
+        <v>8215</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22639</v>
+        <v>24299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02687337079928281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01492318640126761</v>
+        <v>0.01564752230931263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0431221729588674</v>
+        <v>0.04628448422260829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -3415,19 +3415,19 @@
         <v>26750</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18138</v>
+        <v>18127</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38521</v>
+        <v>38042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04914041668241385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03331982341205269</v>
+        <v>0.03329999362896825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07076428020308557</v>
+        <v>0.06988322400341998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -3436,19 +3436,19 @@
         <v>40859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28642</v>
+        <v>30463</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54155</v>
+        <v>55185</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03820856074164747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02678438151923397</v>
+        <v>0.02848721185940565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05064287068418792</v>
+        <v>0.05160552185786305</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>510885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>502354</v>
+        <v>500694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>517158</v>
+        <v>516778</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9731266292007172</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9568778270411329</v>
+        <v>0.9537155157773922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850768135987324</v>
+        <v>0.9843524776906875</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>517</v>
@@ -3486,19 +3486,19 @@
         <v>517613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>505842</v>
+        <v>506321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>526225</v>
+        <v>526236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9508595833175861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9292357197969143</v>
+        <v>0.9301167759965796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9666801765879471</v>
+        <v>0.9667000063710317</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1010</v>
@@ -3507,19 +3507,19 @@
         <v>1028497</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1015201</v>
+        <v>1014171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1040714</v>
+        <v>1038893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9617914392583525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.949357129315812</v>
+        <v>0.948394478142137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.973215618480766</v>
+        <v>0.9715127881405944</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>29658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19582</v>
+        <v>19637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42629</v>
+        <v>43167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03632986521377605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02398767665888977</v>
+        <v>0.02405422825529113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05221954083647114</v>
+        <v>0.05287806250582171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3632,19 +3632,19 @@
         <v>28420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19486</v>
+        <v>19778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40545</v>
+        <v>40373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03280367427840496</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02249178649068811</v>
+        <v>0.02282872718466371</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04679848354231304</v>
+        <v>0.04659956383876976</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -3653,19 +3653,19 @@
         <v>58078</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43159</v>
+        <v>43529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73938</v>
+        <v>74839</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03451435252448616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02564846429672214</v>
+        <v>0.0258684332114916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04393942632935275</v>
+        <v>0.04447533703246523</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>786688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>773717</v>
+        <v>773179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>796764</v>
+        <v>796709</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.963670134786224</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9477804591635286</v>
+        <v>0.9471219374941782</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9760123233411102</v>
+        <v>0.9759457717447089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>789</v>
@@ -3703,19 +3703,19 @@
         <v>837953</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>825828</v>
+        <v>826000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>846887</v>
+        <v>846595</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9671963257215951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532015164576868</v>
+        <v>0.9534004361612299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9775082135093116</v>
+        <v>0.9771712728153362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1516</v>
@@ -3724,19 +3724,19 @@
         <v>1624641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1608781</v>
+        <v>1607880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1639560</v>
+        <v>1639190</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9654856474755138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9560605736706472</v>
+        <v>0.955524662967534</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9743515357032778</v>
+        <v>0.974131566788508</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>12132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6899</v>
+        <v>6136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20389</v>
+        <v>20379</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02204371983353609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01253619413382008</v>
+        <v>0.01114861743005429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03704624537841639</v>
+        <v>0.03702809637138718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3849,19 +3849,19 @@
         <v>23088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14063</v>
+        <v>14576</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34301</v>
+        <v>33811</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03982419228099359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02425750016780234</v>
+        <v>0.02514308607783175</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05916570187406292</v>
+        <v>0.05832183955026285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3870,19 +3870,19 @@
         <v>35220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25200</v>
+        <v>25011</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47875</v>
+        <v>48231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03116506542158048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02229852012422677</v>
+        <v>0.02213214886339467</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04236381603365003</v>
+        <v>0.04267850419294355</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>538228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529971</v>
+        <v>529981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543461</v>
+        <v>544224</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.977956280166464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9629537546215831</v>
+        <v>0.9629719036286124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9874638058661799</v>
+        <v>0.9888513825699456</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>530</v>
@@ -3920,19 +3920,19 @@
         <v>556650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>545437</v>
+        <v>545927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>565675</v>
+        <v>565162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9601758077190065</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.940834298125937</v>
+        <v>0.9416781604497371</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9757424998321976</v>
+        <v>0.9748569139221682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1019</v>
@@ -3941,19 +3941,19 @@
         <v>1094878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1082223</v>
+        <v>1081867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1104898</v>
+        <v>1105087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9688349345784195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9576361839663496</v>
+        <v>0.9573214958070563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9777014798757733</v>
+        <v>0.9778678511366052</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>19867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12771</v>
+        <v>12229</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30508</v>
+        <v>30285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02571278212869627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01652883741700422</v>
+        <v>0.01582763856118646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03948578350511191</v>
+        <v>0.03919723939228165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -4066,19 +4066,19 @@
         <v>24818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15838</v>
+        <v>16070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36607</v>
+        <v>35690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02830386734165225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01806227168211767</v>
+        <v>0.01832765611152611</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04174845865229695</v>
+        <v>0.04070317721780238</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -4087,19 +4087,19 @@
         <v>44685</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32375</v>
+        <v>31940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59745</v>
+        <v>58698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02709017136256448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0196274117617508</v>
+        <v>0.01936345019960418</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03622051216853864</v>
+        <v>0.03558605063065316</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>752768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>742127</v>
+        <v>742350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>759864</v>
+        <v>760406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9742872178713037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9605142164948881</v>
+        <v>0.9608027606077183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9834711625829956</v>
+        <v>0.9841723614388136</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>790</v>
@@ -4137,19 +4137,19 @@
         <v>852023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>840234</v>
+        <v>841151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>861003</v>
+        <v>860771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9716961326583478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9582515413477031</v>
+        <v>0.9592968227821974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9819377283178823</v>
+        <v>0.9816723438884738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1538</v>
@@ -4158,19 +4158,19 @@
         <v>1604791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1589731</v>
+        <v>1590778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1617101</v>
+        <v>1617536</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9729098286374355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9637794878314612</v>
+        <v>0.9644139493693469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9803725882382491</v>
+        <v>0.9806365498003957</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>75765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59179</v>
+        <v>59490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94027</v>
+        <v>95519</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02843661698382717</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0222116278253261</v>
+        <v>0.0223282750856003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03529083119505452</v>
+        <v>0.03585111023644691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -4283,19 +4283,19 @@
         <v>103076</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84783</v>
+        <v>82714</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123719</v>
+        <v>123434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03594862253117746</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02956883261323375</v>
+        <v>0.02884728732455767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04314815243822613</v>
+        <v>0.04304862537628566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -4304,19 +4304,19 @@
         <v>178841</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154653</v>
+        <v>154012</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208093</v>
+        <v>209462</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03233044490673399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02795793355720924</v>
+        <v>0.02784195026769296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03761863892157622</v>
+        <v>0.03786602687634472</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2588568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2570306</v>
+        <v>2568814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2605154</v>
+        <v>2604843</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9715633830161728</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9647091688049451</v>
+        <v>0.9641488897635533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9777883721746734</v>
+        <v>0.9776717249144007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2626</v>
@@ -4354,19 +4354,19 @@
         <v>2764239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2743596</v>
+        <v>2743881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2782532</v>
+        <v>2784601</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9640513774688225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9568518475617741</v>
+        <v>0.9569513746237144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9704311673867663</v>
+        <v>0.9711527126754426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5083</v>
@@ -4375,19 +4375,19 @@
         <v>5352807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5323555</v>
+        <v>5322186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5376995</v>
+        <v>5377636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.967669555093266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9623813610784238</v>
+        <v>0.9621339731236553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9720420664427908</v>
+        <v>0.972158049732307</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>26811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16955</v>
+        <v>16849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43866</v>
+        <v>43939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04065163748091501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02570731725270442</v>
+        <v>0.02554649066280472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06651018104722137</v>
+        <v>0.06662220577561258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -4740,19 +4740,19 @@
         <v>24589</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16840</v>
+        <v>16333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36854</v>
+        <v>37336</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03482177373368603</v>
+        <v>0.03482177373368604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02384706671753434</v>
+        <v>0.02312978617552822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05218948007641829</v>
+        <v>0.05287308039838299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4761,19 +4761,19 @@
         <v>51400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37196</v>
+        <v>36858</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70435</v>
+        <v>70705</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03763720429211041</v>
+        <v>0.0376372042921104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02723596336901054</v>
+        <v>0.02698868592478217</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05157531351433923</v>
+        <v>0.05177300519468934</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>632720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>615665</v>
+        <v>615592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>642576</v>
+        <v>642682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9593483625190851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9334898189527785</v>
+        <v>0.9333777942243874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9742926827472955</v>
+        <v>0.9744535093371952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1166</v>
@@ -4811,19 +4811,19 @@
         <v>681560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669295</v>
+        <v>668813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>689309</v>
+        <v>689816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.965178226266314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9478105199235818</v>
+        <v>0.9471269196016178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9761529332824659</v>
+        <v>0.9768702138244719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1842</v>
@@ -4832,19 +4832,19 @@
         <v>1314280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1295245</v>
+        <v>1294975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1328484</v>
+        <v>1328822</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9623627957078896</v>
+        <v>0.9623627957078895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9484246864856607</v>
+        <v>0.9482269948053109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9727640366309893</v>
+        <v>0.973011314075218</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>24584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15796</v>
+        <v>14768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38661</v>
+        <v>36743</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02419279210542877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01554409721446819</v>
+        <v>0.01453277456523757</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03804584430860242</v>
+        <v>0.0361582114498816</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -4957,19 +4957,19 @@
         <v>36285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25497</v>
+        <v>25605</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50569</v>
+        <v>50287</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03463052928898792</v>
+        <v>0.03463052928898791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02433437788831536</v>
+        <v>0.02443697322689493</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04826294041955257</v>
+        <v>0.0479940179701154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -4978,19 +4978,19 @@
         <v>60870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46892</v>
+        <v>46007</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80643</v>
+        <v>78186</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02949157357422911</v>
+        <v>0.02949157357422909</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02271943271940992</v>
+        <v>0.02229062442371795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03907209120832517</v>
+        <v>0.03788130340616017</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>991596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>977519</v>
+        <v>979437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1000384</v>
+        <v>1001412</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9758072078945712</v>
+        <v>0.9758072078945713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9619541556913976</v>
+        <v>0.9638417885501184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9844559027855319</v>
+        <v>0.9854672254347624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1443</v>
@@ -5028,19 +5028,19 @@
         <v>1011499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>997215</v>
+        <v>997497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1022287</v>
+        <v>1022179</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9653694707110122</v>
+        <v>0.9653694707110121</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9517370595804473</v>
+        <v>0.9520059820298837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9756656221116846</v>
+        <v>0.9755630267731048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2357</v>
@@ -5049,19 +5049,19 @@
         <v>2003094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1983321</v>
+        <v>1985778</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2017072</v>
+        <v>2017957</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.970508426425771</v>
+        <v>0.9705084264257708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609279087916747</v>
+        <v>0.9621186965938395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9772805672805902</v>
+        <v>0.977709375576282</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>43761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30275</v>
+        <v>29728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60986</v>
+        <v>61273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05653803748537772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03911482456583141</v>
+        <v>0.03840819132990594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07879229589772427</v>
+        <v>0.07916309100694997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -5174,19 +5174,19 @@
         <v>46210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34264</v>
+        <v>34837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59160</v>
+        <v>60293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05810048124297058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0430808492524535</v>
+        <v>0.04380114190268825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07438226535810329</v>
+        <v>0.07580683509969038</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -5195,19 +5195,19 @@
         <v>89971</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72127</v>
+        <v>71894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112094</v>
+        <v>113525</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0573298812648274</v>
+        <v>0.05732988126482739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04595989421304</v>
+        <v>0.04581117981735616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07142703029298617</v>
+        <v>0.07233845964858536</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>730247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>713022</v>
+        <v>712735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>743733</v>
+        <v>744280</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9434619625146222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9212077041022758</v>
+        <v>0.92083690899305</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9608851754341686</v>
+        <v>0.9615918086700943</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>966</v>
@@ -5245,19 +5245,19 @@
         <v>749135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>736185</v>
+        <v>735052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>761081</v>
+        <v>760508</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9418995187570294</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9256177346418968</v>
+        <v>0.9241931649003097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9569191507475466</v>
+        <v>0.9561988580973118</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1589</v>
@@ -5266,19 +5266,19 @@
         <v>1479382</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1457259</v>
+        <v>1455828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1497226</v>
+        <v>1497459</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9426701187351727</v>
+        <v>0.9426701187351726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9285729697070138</v>
+        <v>0.9276615403514142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.95404010578696</v>
+        <v>0.9541888201826439</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>22659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13793</v>
+        <v>14271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35458</v>
+        <v>35457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02390255655579332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01455000548384683</v>
+        <v>0.01505441247392792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03740472159070933</v>
+        <v>0.03740377347340075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5391,19 +5391,19 @@
         <v>45027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32581</v>
+        <v>32228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60983</v>
+        <v>60651</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04183960443185753</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03027497782853978</v>
+        <v>0.02994735245773636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05666664795361323</v>
+        <v>0.05635811141376501</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -5412,19 +5412,19 @@
         <v>67685</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52351</v>
+        <v>51718</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88102</v>
+        <v>88989</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03343915775567241</v>
+        <v>0.0334391577556724</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0258632587336577</v>
+        <v>0.02555053311466813</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04352602899474196</v>
+        <v>0.04396410555076104</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>925300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912501</v>
+        <v>912502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934166</v>
+        <v>933688</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9760974434442066</v>
+        <v>0.9760974434442067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9625952784092906</v>
+        <v>0.9625962265265994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9854499945161532</v>
+        <v>0.9849455875260722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1461</v>
@@ -5462,19 +5462,19 @@
         <v>1031143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1015187</v>
+        <v>1015519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1043589</v>
+        <v>1043942</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9581603955681423</v>
+        <v>0.9581603955681425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9433333520463864</v>
+        <v>0.9436418885862354</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9697250221714599</v>
+        <v>0.9700526475422637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2407</v>
@@ -5483,19 +5483,19 @@
         <v>1956444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1936027</v>
+        <v>1935140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971778</v>
+        <v>1972411</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9665608422443278</v>
+        <v>0.9665608422443276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.956473971005258</v>
+        <v>0.9560358944492386</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9741367412663422</v>
+        <v>0.9744494668853316</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>117815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94731</v>
+        <v>95458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147335</v>
+        <v>148268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03467508576225804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02788110127338435</v>
+        <v>0.02809504227481209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04336332814405161</v>
+        <v>0.04363801519165089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -5608,19 +5608,19 @@
         <v>152111</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131554</v>
+        <v>128541</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178965</v>
+        <v>176673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04195650809230342</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03628628425703694</v>
+        <v>0.03545531454316778</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04936353356664729</v>
+        <v>0.04873128466736911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>275</v>
@@ -5629,19 +5629,19 @@
         <v>269926</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239728</v>
+        <v>236356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>309514</v>
+        <v>307631</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03843387045243834</v>
+        <v>0.03843387045243835</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0341340879324009</v>
+        <v>0.03365402572286653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04407063132243794</v>
+        <v>0.04380254174236595</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3279863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3250343</v>
+        <v>3249410</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3302947</v>
+        <v>3302220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9653249142377419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9566366718559484</v>
+        <v>0.9563619848083492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9721188987266161</v>
+        <v>0.9719049577251879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5036</v>
@@ -5679,19 +5679,19 @@
         <v>3473337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3446483</v>
+        <v>3448775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3493894</v>
+        <v>3496907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9580434919076964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9506364664333525</v>
+        <v>0.9512687153326307</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9637137157429633</v>
+        <v>0.964544685456832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8195</v>
@@ -5700,19 +5700,19 @@
         <v>6753199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6713611</v>
+        <v>6715494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6783397</v>
+        <v>6786769</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9615661295475616</v>
+        <v>0.9615661295475617</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.955929368677562</v>
+        <v>0.956197458257634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9658659120675985</v>
+        <v>0.9663459742771333</v>
       </c>
     </row>
     <row r="18">
